--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value192.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value192.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163083548436673</v>
+        <v>5.827163696289062</v>
       </c>
       <c r="B1">
-        <v>1.800440856087774</v>
+        <v>4.509828090667725</v>
       </c>
       <c r="C1">
-        <v>2.89665607646468</v>
+        <v>4.448561668395996</v>
       </c>
       <c r="D1">
-        <v>2.296318171555709</v>
+        <v>4.267438411712646</v>
       </c>
       <c r="E1">
-        <v>0.6183630768213636</v>
+        <v>3.173418521881104</v>
       </c>
     </row>
   </sheetData>
